--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118004.1804730341</v>
+        <v>20764726.65120469</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118004.1804730341</v>
+        <v>20764726.65120469</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2087.966174648939</v>
+        <v>159852.1210978795</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2087.966174648939</v>
+        <v>159852.1210978795</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958890250.5610671</v>
+        <v>39154989.80270886</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7646.117360241087</v>
+        <v>879260.2277558035</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14513.7174949974</v>
+        <v>1664150.812826351</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21445.79767653955</v>
+        <v>2449041.397896899</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28551.06366625531</v>
+        <v>3234663.501964927</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35537.93148218859</v>
+        <v>4020188.659035475</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42611.60253312618</v>
+        <v>4805713.816106021</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49604.16529717008</v>
+        <v>5591238.973176566</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>56660.40144203806</v>
+        <v>6376764.130247111</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>63723.83075898831</v>
+        <v>7162604.213411467</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70753.32722436442</v>
+        <v>7948389.881359164</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77939.81211359036</v>
+        <v>8734175.549306804</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>84941.97670511181</v>
+        <v>9519646.291160613</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>92027.04358209428</v>
+        <v>10305171.44823117</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99071.38413152428</v>
+        <v>11082268.04771675</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>106193.9801793221</v>
+        <v>11860263.9798643</v>
       </c>
     </row>
   </sheetData>
